--- a/XunFeiWord2AnkiFiles/讯飞AI学-生词本-20231224.xlsx
+++ b/XunFeiWord2AnkiFiles/讯飞AI学-生词本-20231224.xlsx
@@ -441,14 +441,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n.任务, 差使, 差事, 使命</t>
+          <t>n.任务， 差使， 差事， 使命</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>if it's what's meant to be, then so be it.</t>
+          <t>if it's what's meant to be， then so be it.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n.赎回, 赎身, 偿还, 拯救</t>
+          <t>n.赎回， 赎身， 偿还， 拯救</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>adj.肮脏的, 贪婪的, 卑鄙的, 恶劣的, 暗淡的</t>
+          <t>adj.肮脏的， 贪婪的， 卑鄙的， 恶劣的， 暗淡的</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>v.责备, 归咎于n.过失, 责备</t>
+          <t>v.责备， 归咎于n.过失， 责备</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>n.暴动, 喧闹, 放纵v.发动, 暴动, 纵情, 放荡;浪费, 挥霍</t>
+          <t>n.暴动， 喧闹， 放纵v.发动， 暴动， 纵情， 放荡;浪费， 挥霍</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>倒在栏索上, 处于困境, 濒于失败</t>
+          <t>倒在栏索上， 处于困境， 濒于失败</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>do you mean that literally, or figuratively?</t>
+          <t>do you mean that literally， or figuratively?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>n.保释, 保释人, 保释金, 拎环, 杓, 三柱门上的横木v.保释, 舀水, 担保</t>
+          <t>n.保释， 保释人， 保释金， 拎环， 杓， 三柱门上的横木v.保释， 舀水， 担保</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n.承认, 忏悔, 告解, 供认, 表白, 坦白, 招供</t>
+          <t>n.承认， 忏悔， 告解， 供认， 表白， 坦白， 招供</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n.特许状, 执照, 宪章, 章程v.特许, 包租, 发给特许执照</t>
+          <t>n.特许状， 执照， 宪章， 章程v.特许， 包租， 发给特许执照</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj.地球外的, 地球大气圈外的n.外星生物</t>
+          <t>adj.地球外的， 地球大气圈外的n.外星生物</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>adj.痛苦的, 哀伤的;身体虚弱的;刻意磨损以显古风的v.使忧虑, 使悲伤, 使苦恼</t>
+          <t>adj.痛苦的， 哀伤的;身体虚弱的;刻意磨损以显古风的v.使忧虑， 使悲伤， 使苦恼</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>adj.全部的, 全体的, 从头至尾的, 一切在内的adv.从头到尾, 总的说来n.罩衫, 工作服</t>
+          <t>adj.全部的， 全体的， 从头至尾的， 一切在内的adv.从头到尾， 总的说来n.罩衫， 工作服</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>n.白骨顶(鸟), 笨人, 傻瓜</t>
+          <t>n.白骨顶(鸟)， 笨人， 傻瓜</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n.逆境, 困境, 不幸, 灾祸, 灾难</t>
+          <t>n.逆境， 困境， 不幸， 灾祸， 灾难</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>n.(辩论、战斗中的)敌手, 对手</t>
+          <t>n.(辩论、战斗中的)敌手， 对手</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>v.召唤, 召集, 号召, 振奋, 唤起, 鼓起</t>
+          <t>v.召唤， 召集， 号召， 振奋， 唤起， 鼓起</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n.赔偿, 赔罪, 补偿</t>
+          <t>n.赔偿， 赔罪， 补偿</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>n.行为不良的人, 违法者adj.怠忽的, 有过失的</t>
+          <t>n.行为不良的人， 违法者adj.怠忽的， 有过失的</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>n.罪行, 犯罪</t>
+          <t>n.罪行， 犯罪</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>n.漫步, 随笔v.漫步, 漫谈, 漫游, 蔓延, 闲逛于</t>
+          <t>n.漫步， 随笔v.漫步， 漫谈， 漫游， 蔓延， 闲逛于</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>n.敲击, 破布v.打补钉, 猛击, 重打</t>
+          <t>n.敲击， 破布v.打补钉， 猛击， 重打</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>n.不顺从, 反抗</t>
+          <t>n.不顺从， 反抗</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>v.事后劝告, 预言</t>
+          <t>v.事后劝告， 预言</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>n.外伤, 损伤</t>
+          <t>n.外伤， 损伤</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>n.方案, 计划v.计划, 设计, 图谋, 策划</t>
+          <t>n.方案， 计划v.计划， 设计， 图谋， 策划</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>adj.武断的, 坚定自信的, 坚决主张的,</t>
+          <t>adj.武断的， 坚定自信的， 坚决主张的，</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj.恶兆的, 不吉利的, 预兆的</t>
+          <t>adj.恶兆的， 不吉利的， 预兆的</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>n.螺旋形之物, 螺线adj.螺旋形的, 盘旋的v.螺旋形下降, 螺旋形上升, 螺旋形行进;使螺旋形行进</t>
+          <t>n.螺旋形之物， 螺线adj.螺旋形的， 盘旋的v.螺旋形下降， 螺旋形上升， 螺旋形行进;使螺旋形行进</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>n.清白, 无辜, 无罪, 天真, 纯真, 单纯, 无知, 天真无邪</t>
+          <t>n.清白， 无辜， 无罪， 天真， 纯真， 单纯， 无知， 天真无邪</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>adj.难懂的, 易忘的, 难以捉摸的, 逃避的</t>
+          <t>adj.难懂的， 易忘的， 难以捉摸的， 逃避的</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>n.星座, 荟萃</t>
+          <t>n.星座， 荟萃</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>n.杠杆, 窥探, 好奇者v.打听, 窥探;撬动, 撬开, 费力得到</t>
+          <t>n.杠杆， 窥探， 好奇者v.打听， 窥探;撬动， 撬开， 费力得到</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>马上, 一会儿</t>
+          <t>马上， 一会儿</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>v.摇动, 搅和, 搅拌n.骚动, 轰动, 搅动, 监狱, 愤怒情绪</t>
+          <t>v.摇动， 搅和， 搅拌n.骚动， 轰动， 搅动， 监狱， 愤怒情绪</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>v.商议, 谈判, 交涉, 谈妥, 转让, 议定</t>
+          <t>v.商议， 谈判， 交涉， 谈妥， 转让， 议定</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>v.避开, 规避, 避免</t>
+          <t>v.避开， 规避， 避免</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>v.承认, 坦白, 忏悔, 供认</t>
+          <t>v.承认， 坦白， 忏悔， 供认</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>adj.被逐出的, 被遗弃的, 无家可归的n.被驱逐的人, 流浪者, 被抛弃者, 被排斥者</t>
+          <t>adj.被逐出的， 被遗弃的， 无家可归的n.被驱逐的人， 流浪者， 被抛弃者， 被排斥者</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj.嫉妒的, 忌妒的, 羡慕的</t>
+          <t>adj.嫉妒的， 忌妒的， 羡慕的</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>n.移情作用, 共鸣</t>
+          <t>n.移情作用， 共鸣</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>n.鞭子, 抽打, 车夫, 搅拌器v.鞭打, 搅拌, 煽动, 召集, 仓促制成;拍击, 急走, 抽打</t>
+          <t>n.鞭子， 抽打， 车夫， 搅拌器v.鞭打， 搅拌， 煽动， 召集， 仓促制成;拍击， 急走， 抽打</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>n.暴徒, 傻瓜, 蠢人, 受雇暴徒, 愚笨者, 呆子</t>
+          <t>n.暴徒， 傻瓜， 蠢人， 受雇暴徒， 愚笨者， 呆子</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>n.勒索, 敲诈v.勒索</t>
+          <t>n.勒索， 敲诈v.勒索</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>v.使...安心, 向...再保证</t>
+          <t>v.使...安心， 向...再保证</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>adj.轻便的, 手提(式)的</t>
+          <t>adj.轻便的， 手提(式)的</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>n.枕头v.作...的枕头, 垫, 枕于</t>
+          <t>n.枕头v.作...的枕头， 垫， 枕于</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj.厌恶的;厌烦的;憎恶的v.使作呕, 使厌恶, 使反感</t>
+          <t>adj.厌恶的;厌烦的;憎恶的v.使作呕， 使厌恶， 使反感</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>n.毕业舞会, (英)音乐会, (美)舞会, 散步道</t>
+          <t>n.毕业舞会， (英)音乐会， (美)舞会， 散步道</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj.骑术的, 马的, 骑在马背上的n.骑手</t>
+          <t>adj.骑术的， 马的， 骑在马背上的n.骑手</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>n.津贴, 零用钱, 限额, 折扣, 免税额, 补贴v.定量供应, 给...发津贴</t>
+          <t>n.津贴， 零用钱， 限额， 折扣， 免税额， 补贴v.定量供应， 给...发津贴</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>v.高飞, 翱翔n.高扬, 翱翔</t>
+          <t>v.高飞， 翱翔n.高扬， 翱翔</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>锤成, 铲平, 设计出</t>
+          <t>锤成， 铲平， 设计出</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n.晋级, 晋升, 提升, 推销, 促销, 发扬, 振兴, 创建, 增进</t>
+          <t>n.晋级， 晋升， 提升， 推销， 促销， 发扬， 振兴， 创建， 增进</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n.独裁者之职位, 独裁, 独裁政权</t>
+          <t>n.独裁者之职位， 独裁， 独裁政权</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>v.开发, 剥削n.功绩, 勋绩, 行为</t>
+          <t>v.开发， 剥削n.功绩， 勋绩， 行为</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adj.广泛的, 有理解力的, 综合的n.综合中学</t>
+          <t>adj.广泛的， 有理解力的， 综合的n.综合中学</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>n.赌注, 赌博, 赌物v.下赌注, 向...保证, 打赌</t>
+          <t>n.赌注， 赌博， 赌物v.下赌注， 向...保证， 打赌</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adj.可靠的, 真实的, 可信的, 真正的</t>
+          <t>adj.可靠的， 真实的， 可信的， 真正的</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>adj.贪吃的, 贪婪的, 贪心的</t>
+          <t>adj.贪吃的， 贪婪的， 贪心的</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>n.假面目, 假装, 伪装v.假装, 隐瞒, 伪装, 假扮, 遮掩, 掩饰</t>
+          <t>n.假面目， 假装， 伪装v.假装， 隐瞒， 伪装， 假扮， 遮掩， 掩饰</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>n.幽灵, 鬼v.惊吓, 鬼怪般地出没;惊吓而逃窜, 受惊</t>
+          <t>n.幽灵， 鬼v.惊吓， 鬼怪般地出没;惊吓而逃窜， 受惊</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>n.阁楼, 鼓室上的隐窝, 顶楼</t>
+          <t>n.阁楼， 鼓室上的隐窝， 顶楼</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj.(极度)不安的, 混乱的, 震惊的v.彻底破坏, 摧毁, 毁灭, 使震惊, 使极为忧伤, 使极为悲痛</t>
+          <t>adj.(极度)不安的， 混乱的， 震惊的v.彻底破坏， 摧毁， 毁灭， 使震惊， 使极为忧伤， 使极为悲痛</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>n.监护, 保管, 抚养权, 拘留, 监禁</t>
+          <t>n.监护， 保管， 抚养权， 拘留， 监禁</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>you scared the life out of me, pig!</t>
+          <t>you scared the life out of me， pig!</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>there's a bit too much resemblance for it to be a coincidence,</t>
+          <t>there's a bit too much resemblance for it to be a coincidence，</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>adj.邪恶的, 邪道的, 异端的n.罪大恶极的人, 恶棍, 异端</t>
+          <t>adj.邪恶的， 邪道的， 异端的n.罪大恶极的人， 恶棍， 异端</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>v.走向岔道, 离题, 扯到枝节上</t>
+          <t>v.走向岔道， 离题， 扯到枝节上</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>n.端正, 礼貌, 合宜, 礼仪</t>
+          <t>n.端正， 礼貌， 合宜， 礼仪</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>adj.有傻劲的, 热心的</t>
+          <t>adj.有傻劲的， 热心的</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>n.庭院, 天井, 院子</t>
+          <t>n.庭院， 天井， 院子</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>n.监牢, 监狱, 拘留所v.监禁, 下狱</t>
+          <t>n.监牢， 监狱， 拘留所v.监禁， 下狱</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>adj.公平的, 不偏不倚的</t>
+          <t>adj.公平的， 不偏不倚的</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj.不吉利的, 凶恶的, 左边的</t>
+          <t>adj.不吉利的， 凶恶的， 左边的</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>adj.外伤的, 痛苦的, 不愉快的, 创伤的</t>
+          <t>adj.外伤的， 痛苦的， 不愉快的， 创伤的</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>n.尊崇, 尊敬, 效忠</t>
+          <t>n.尊崇， 尊敬， 效忠</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>n.报仇, 复仇, 报复v.报仇, 报复</t>
+          <t>n.报仇， 复仇， 报复v.报仇， 报复</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>adj.瘦削的, 寒碜的, 破败的, 憔悴的, 荒凉的</t>
+          <t>adj.瘦削的， 寒碜的， 破败的， 憔悴的， 荒凉的</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>adj.喝醉酒的v.(哗啦一声)打碎, 打破, 破碎, (使)猛烈撞击, 猛烈碰撞, (用力)撞开, 击穿, 闯过</t>
+          <t>adj.喝醉酒的v.(哗啦一声)打碎， 打破， 破碎， (使)猛烈撞击， 猛烈碰撞， (用力)撞开， 击穿， 闯过</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>v.扭弯, 曲解</t>
+          <t>v.扭弯， 曲解</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>n.电路, 环(行)道, 巡回v.巡回, 周游</t>
+          <t>n.电路， 环(行)道， 巡回v.巡回， 周游</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>adv.不合理地, 无理性地</t>
+          <t>adv.不合理地， 无理性地</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>adj.富贵的, 珍贵的</t>
+          <t>adj.富贵的， 珍贵的</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>v.屈从, 屈服, 死</t>
+          <t>v.屈从， 屈服， 死</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>n.群, 大群, 蜂群, 分蜂群, 一大群v.分群, 群集, 聚集一块, 云集, 攀, 挤满, 爬, 成群地来回移动</t>
+          <t>n.群， 大群， 蜂群， 分蜂群， 一大群v.分群， 群集， 聚集一块， 云集， 攀， 挤满， 爬， 成群地来回移动</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>adj.破烂的, 褴褛的, 衣衫褴褛的</t>
+          <t>adj.破烂的， 褴褛的， 衣衫褴褛的</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>n.注视, 凝视v.注视, 凝视, 盯</t>
+          <t>n.注视， 凝视v.注视， 凝视， 盯</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>n.匾, 饰板, 名牌, 勋章, 胸襟饰物, 血小板</t>
+          <t>n.匾， 饰板， 名牌， 勋章， 胸襟饰物， 血小板</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>adj.不稳的, 摇晃的, 靠不住的</t>
+          <t>adj.不稳的， 摇晃的， 靠不住的</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>n.回声, 回音, 回波, 反响v.发回声, 随声附和, 摹仿, 重复, 反射</t>
+          <t>n.回声， 回音， 回波， 反响v.发回声， 随声附和， 摹仿， 重复， 反射</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>n.手推车, 二轮运货马车v.驾运货马车, 用车装载</t>
+          <t>n.手推车， 二轮运货马车v.驾运货马车， 用车装载</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>n.嘟囔, 牢骚, 咕隆声, 隆隆声, 怨言, 满腹牢骚v.咕哝, 嘟囔, 抱怨, 发牢骚, 发隆隆声</t>
+          <t>n.嘟囔， 牢骚， 咕隆声， 隆隆声， 怨言， 满腹牢骚v.咕哝， 嘟囔， 抱怨， 发牢骚， 发隆隆声</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>adv.活泼地, 精神勃勃地, 迅速地</t>
+          <t>adv.活泼地， 精神勃勃地， 迅速地</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>v.炸毁, 爆破n.黄色炸药</t>
+          <t>v.炸毁， 爆破n.黄色炸药</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>n.兵工厂, 军械库, 武器库</t>
+          <t>n.兵工厂， 军械库， 武器库</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>n.织物, 布, 结构, 组织, 构造, 建筑物</t>
+          <t>n.织物， 布， 结构， 组织， 构造， 建筑物</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>adj.复杂的, 错综的, 缠结的, 难懂的</t>
+          <t>adj.复杂的， 错综的， 缠结的， 难懂的</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>n.火炬, 火把v.故意点燃, 放火烧</t>
+          <t>n.火炬， 火把v.故意点燃， 放火烧</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>adj.空的, 未住人的, 空白的, 空虚的, 空闲的, 茫然的, 空缺的</t>
+          <t>adj.空的， 未住人的， 空白的， 空虚的， 空闲的， 茫然的， 空缺的</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>v.使窒息, 噎住, 闷熄, 闷死, 窒息, 受阻, (使)窒息而死</t>
+          <t>v.使窒息， 噎住， 闷熄， 闷死， 窒息， 受阻， (使)窒息而死</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>v.忧郁, 闲荡;使忧郁n.忧郁的人</t>
+          <t>v.忧郁， 闲荡;使忧郁n.忧郁的人</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>突然改变情绪, 重新振作起来, 改变, 振作起来</t>
+          <t>突然改变情绪， 重新振作起来， 改变， 振作起来</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>与此相反, 正相反</t>
+          <t>与此相反， 正相反</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>v.游手好闲, 混日子</t>
+          <t>v.游手好闲， 混日子</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>n.钻进, 跳进, 跳水(池), 猛跌, 落下, 投入, 开始从事, 盲目投资v.投入, 投身于, 跳进, 陷入, 下降</t>
+          <t>n.钻进， 跳进， 跳水(池)， 猛跌， 落下， 投入， 开始从事， 盲目投资v.投入， 投身于， 跳进， 陷入， 下降</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>v.珍爱, 怀有(感情), 爱护</t>
+          <t>v.珍爱， 怀有(感情)， 爱护</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>n.神经, 胆量v.鼓起勇气</t>
+          <t>n.神经， 胆量v.鼓起勇气</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>n.私生子, 劣货adj.私生的, 杂种的, 不合标准的</t>
+          <t>n.私生子， 劣货adj.私生的， 杂种的， 不合标准的</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>adj.驴的, 像驴的, 愚蠢的</t>
+          <t>adj.驴的， 像驴的， 愚蠢的</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>adj.悲哀的, 可怜的, 感伤的, 差劲的</t>
+          <t>adj.悲哀的， 可怜的， 感伤的， 差劲的</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>n.闹剧, 滑稽剧, 胡闹v.用笑话补充</t>
+          <t>n.闹剧， 滑稽剧， 胡闹v.用笑话补充</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>adj.令人愉快的, 可爱的</t>
+          <t>adj.令人愉快的， 可爱的</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>n.中伤, 诽谤v.中伤, 诽谤</t>
+          <t>n.中伤， 诽谤v.中伤， 诽谤</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>v.容忍, 忍受</t>
+          <t>v.容忍， 忍受</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>your puny little mind,</t>
+          <t>your puny little mind，</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>v.刺激, 激励, 引诱</t>
+          <t>v.刺激， 激励， 引诱</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>n.伪善, 虚伪</t>
+          <t>n.伪善， 虚伪</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>v.教唆, 怂恿, 煽动</t>
+          <t>v.教唆， 怂恿， 煽动</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>adj.无脊椎的, 没有骨气的, 懦弱的</t>
+          <t>adj.无脊椎的， 没有骨气的， 懦弱的</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>adj.低能的, 愚钝的, 虚弱的n.低能者, 痴呆, 蠢人</t>
+          <t>adj.低能的， 愚钝的， 虚弱的n.低能者， 痴呆， 蠢人</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>n.侮慢无礼的人adj.粗野的, 无礼的, 侮慢的, 无耻的, 傲慢的</t>
+          <t>n.侮慢无礼的人adj.粗野的， 无礼的， 侮慢的， 无耻的， 傲慢的</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>n.景色, 前途, 展望v.勘探, 勘察, 找矿, 有前途</t>
+          <t>n.景色， 前途， 展望v.勘探， 勘察， 找矿， 有前途</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>v.使空气流通, 使通风, 公开讨论, 公开</t>
+          <t>v.使空气流通， 使通风， 公开讨论， 公开</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>n.迷宫, 难解事物, 迷路, 曲径</t>
+          <t>n.迷宫， 难解事物， 迷路， 曲径</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>n.房屋, 上述各点, 上述房屋</t>
+          <t>n.房屋， 上述各点， 上述房屋</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>n.别墅, 乡间宅第, 庄园</t>
+          <t>n.别墅， 乡间宅第， 庄园</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>n.食欲, 胃口, 欲望, 爱好</t>
+          <t>n.食欲， 胃口， 欲望， 爱好</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>adj.被遗弃的, 废弃的, 无人居住的v.抛弃, 离弃, 遗弃(某人), 舍弃, 离弃(某地方), 擅离(部队), 逃走, 开小差</t>
+          <t>adj.被遗弃的， 废弃的， 无人居住的v.抛弃， 离弃， 遗弃(某人)， 舍弃， 离弃(某地方)， 擅离(部队)， 逃走， 开小差</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>v.共存, 和平共存</t>
+          <t>v.共存， 和平共存</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>n.人质, 抵押品</t>
+          <t>n.人质， 抵押品</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>n.振动, 颤动, 感情的共鸣</t>
+          <t>n.振动， 颤动， 感情的共鸣</t>
         </is>
       </c>
     </row>
@@ -3609,14 +3609,14 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>n.鼾声, 打鼾v.打鼾度过, 打鼾, 打呼噜</t>
+          <t>n.鼾声， 打鼾v.打鼾度过， 打鼾， 打呼噜</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>i'll probably only find regrets and sorrows there, but it's worth a shot.</t>
+          <t>i'll probably only find regrets and sorrows there， but it's worth a shot.</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>n.锯子, 谚语v.〔用锯子〕锯, 锯开</t>
+          <t>n.锯子， 谚语v.〔用锯子〕锯， 锯开</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>n.圣所(指教堂、寺院等), 耶路撒冷的神殿, 避难所</t>
+          <t>n.圣所(指教堂、寺院等)， 耶路撒冷的神殿， 避难所</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>adj.壮丽的, 辉煌的, 极好的</t>
+          <t>adj.壮丽的， 辉煌的， 极好的</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>adv.极大地, 极端地, 极其地, 非常</t>
+          <t>adv.极大地， 极端地， 极其地， 非常</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>i'll probably give a go at it myself,</t>
+          <t>i'll probably give a go at it myself，</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>n.织布机, 若隐若现的景象v.朦胧地出现, 隐约可见, 可怕地出现</t>
+          <t>n.织布机， 若隐若现的景象v.朦胧地出现， 隐约可见， 可怕地出现</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>adv.整洁地, 干净地, 匀称地, 熟练地, 灵巧地</t>
+          <t>adv.整洁地， 干净地， 匀称地， 熟练地， 灵巧地</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>n.渴望, 切望</t>
+          <t>n.渴望， 切望</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>n.浆果(葡萄, 番茄)v.采集浆果</t>
+          <t>n.浆果(葡萄， 番茄)v.采集浆果</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>v.减轻, 救济, 解除, 使免除, 换...的班, 使得到调剂, 使不单调, 衬托, 使显著;救济, 呈鲜明突出</t>
+          <t>v.减轻， 救济， 解除， 使免除， 换...的班， 使得到调剂， 使不单调， 衬托， 使显著;救济， 呈鲜明突出</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>v.使(液体)缓缓流出, (浓液)渗出, 慢慢流出</t>
+          <t>v.使(液体)缓缓流出， (浓液)渗出， 慢慢流出</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>n.腐败, 堕落, 贿赂, 受贿, 贪污</t>
+          <t>n.腐败， 堕落， 贿赂， 受贿， 贪污</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>v.(使)纠缠, (使)缠绕</t>
+          <t>v.(使)纠缠， (使)缠绕</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>adj.不可避免的, 必然的</t>
+          <t>adj.不可避免的， 必然的</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>n.残骸, 失事, 破坏</t>
+          <t>n.残骸， 失事， 破坏</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>n.锯木厂, 锯木机</t>
+          <t>n.锯木厂， 锯木机</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>adj.喜爱的, 慈爱的, 宠爱的</t>
+          <t>adj.喜爱的， 慈爱的， 宠爱的</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>n.共同统治, 共管下的政府, 共管, 多层公寓大楼, 由个人占用的一套公寓房间</t>
+          <t>n.共同统治， 共管下的政府， 共管， 多层公寓大楼， 由个人占用的一套公寓房间</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>i can get along with anyone, anywhere, any time.</t>
+          <t>i can get along with anyone， anywhere， any time.</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>n.水生有壳动物, 贝</t>
+          <t>n.水生有壳动物， 贝</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>adj.笨重的, 麻烦的, 累赘的</t>
+          <t>adj.笨重的， 麻烦的， 累赘的</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>adj.懦怯的, 胆小的n.懦弱的人, 懦夫, 夹着尾巴的人, 胆小的人</t>
+          <t>adj.懦怯的， 胆小的n.懦弱的人， 懦夫， 夹着尾巴的人， 胆小的人</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>n.侄女, 甥女</t>
+          <t>n.侄女， 甥女</t>
         </is>
       </c>
     </row>
